--- a/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.11389582901495</v>
+        <v>4.113895829014723</v>
       </c>
       <c r="C2">
-        <v>0.671135249609307</v>
+        <v>0.6711352496096197</v>
       </c>
       <c r="D2">
-        <v>0.02458080574988486</v>
+        <v>0.02458080574979959</v>
       </c>
       <c r="E2">
-        <v>0.02173774275785068</v>
+        <v>0.0217377427578036</v>
       </c>
       <c r="F2">
-        <v>3.176916763068874</v>
+        <v>3.17691676306886</v>
       </c>
       <c r="G2">
-        <v>0.0008453776742044207</v>
+        <v>0.0008453776740895393</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05549617253690275</v>
+        <v>0.05549617253690986</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0.6505458304188139</v>
       </c>
       <c r="N2">
-        <v>1.841274654994407</v>
+        <v>1.84127465499445</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.642434651241729</v>
+        <v>3.642434651241672</v>
       </c>
       <c r="C3">
-        <v>0.578776337361063</v>
+        <v>0.5787763373612904</v>
       </c>
       <c r="D3">
-        <v>0.02126232897322211</v>
+        <v>0.02126232897310842</v>
       </c>
       <c r="E3">
-        <v>0.02054154180733647</v>
+        <v>0.02054154180730627</v>
       </c>
       <c r="F3">
-        <v>2.991622738553048</v>
+        <v>2.991622738553062</v>
       </c>
       <c r="G3">
-        <v>0.0008552271826283375</v>
+        <v>0.0008552271825083812</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05608090601594728</v>
+        <v>0.05608090601589399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0.1607769941089785</v>
       </c>
       <c r="M3">
-        <v>0.58026388637618</v>
+        <v>0.5802638863761658</v>
       </c>
       <c r="N3">
         <v>1.881935511615467</v>
@@ -518,19 +518,19 @@
         <v>3.359820459141304</v>
       </c>
       <c r="C4">
-        <v>0.5231391754566914</v>
+        <v>0.5231391754564356</v>
       </c>
       <c r="D4">
-        <v>0.01931414075411908</v>
+        <v>0.01931414075421856</v>
       </c>
       <c r="E4">
-        <v>0.01981671172233312</v>
+        <v>0.01981671172231447</v>
       </c>
       <c r="F4">
-        <v>2.883880839533376</v>
+        <v>2.883880839533333</v>
       </c>
       <c r="G4">
-        <v>0.0008614351487099482</v>
+        <v>0.0008614351487026448</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05644993332636705</v>
+        <v>0.0564499333263293</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1528500505994188</v>
+        <v>0.1528500505993762</v>
       </c>
       <c r="M4">
-        <v>0.5381863242484499</v>
+        <v>0.5381863242484357</v>
       </c>
       <c r="N4">
-        <v>1.909095665081111</v>
+        <v>1.909095665081082</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.24619021871257</v>
+        <v>3.246190218712513</v>
       </c>
       <c r="C5">
-        <v>0.5006984087864339</v>
+        <v>0.5006984087866613</v>
       </c>
       <c r="D5">
-        <v>0.01853968939878925</v>
+        <v>0.01853968939902373</v>
       </c>
       <c r="E5">
         <v>0.01952314441409531</v>
       </c>
       <c r="F5">
-        <v>2.841365200821969</v>
+        <v>2.841365200821983</v>
       </c>
       <c r="G5">
-        <v>0.0008640072732032381</v>
+        <v>0.0008640072732026827</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05660285753956984</v>
+        <v>0.05660285753962491</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1496801914588417</v>
+        <v>0.1496801914589057</v>
       </c>
       <c r="M5">
-        <v>0.5212817958532412</v>
+        <v>0.5212817958532341</v>
       </c>
       <c r="N5">
-        <v>1.920688601395085</v>
+        <v>1.920688601394971</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.227409643478097</v>
+        <v>3.227409643477984</v>
       </c>
       <c r="C6">
         <v>0.4969851017415294</v>
       </c>
       <c r="D6">
-        <v>0.01841218429542124</v>
+        <v>0.01841218429532532</v>
       </c>
       <c r="E6">
-        <v>0.0194744900009205</v>
+        <v>0.01947449000092405</v>
       </c>
       <c r="F6">
-        <v>2.834385988272643</v>
+        <v>2.834385988272686</v>
       </c>
       <c r="G6">
-        <v>0.0008644369847821442</v>
+        <v>0.0008644369848392503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05662840487344978</v>
+        <v>0.05662840487346621</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1491573415450347</v>
+        <v>0.1491573415449992</v>
       </c>
       <c r="M6">
-        <v>0.5184886777347515</v>
+        <v>0.5184886777347586</v>
       </c>
       <c r="N6">
-        <v>1.922644567113096</v>
+        <v>1.922644567113139</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.358282015072291</v>
+        <v>3.358282015072234</v>
       </c>
       <c r="C7">
-        <v>0.5228356400616008</v>
+        <v>0.5228356400621124</v>
       </c>
       <c r="D7">
-        <v>0.01930362125750307</v>
+        <v>0.01930362125749241</v>
       </c>
       <c r="E7">
-        <v>0.019812746027557</v>
+        <v>0.01981274602755345</v>
       </c>
       <c r="F7">
-        <v>2.883301989130317</v>
+        <v>2.88330198913026</v>
       </c>
       <c r="G7">
-        <v>0.0008614696634539798</v>
+        <v>0.0008614696634534573</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05645198538372664</v>
+        <v>0.05645198538371909</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1528070627914175</v>
+        <v>0.1528070627913962</v>
       </c>
       <c r="M7">
-        <v>0.5379573976935887</v>
+        <v>0.5379573976935959</v>
       </c>
       <c r="N7">
-        <v>1.909249919628991</v>
+        <v>1.909249919628976</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>3.949792066715588</v>
       </c>
       <c r="C8">
-        <v>0.6390437274953911</v>
+        <v>0.6390437274946805</v>
       </c>
       <c r="D8">
-        <v>0.02341613196880132</v>
+        <v>0.02341613196868053</v>
       </c>
       <c r="E8">
-        <v>0.02132289953604705</v>
+        <v>0.021322899536111</v>
       </c>
       <c r="F8">
-        <v>3.111696500723056</v>
+        <v>3.111696500723042</v>
       </c>
       <c r="G8">
-        <v>0.0008487417732017813</v>
+        <v>0.0008487417731442015</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05569573075626622</v>
+        <v>0.05569573075628709</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1694572465241819</v>
+        <v>0.1694572465242175</v>
       </c>
       <c r="M8">
-        <v>0.6260715988687053</v>
+        <v>0.6260715988687124</v>
       </c>
       <c r="N8">
-        <v>1.854822205432328</v>
+        <v>1.854822205432342</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.173738777926928</v>
+        <v>5.173738777926815</v>
       </c>
       <c r="C9">
-        <v>0.8773331749132183</v>
+        <v>0.8773331749134456</v>
       </c>
       <c r="D9">
-        <v>0.0323437187730633</v>
+        <v>0.0323437187731983</v>
       </c>
       <c r="E9">
-        <v>0.02439240259335129</v>
+        <v>0.02439240259338327</v>
       </c>
       <c r="F9">
         <v>3.613764051270067</v>
       </c>
       <c r="G9">
-        <v>0.0008249539061506914</v>
+        <v>0.0008249539061495118</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05429072013235636</v>
+        <v>0.05429072013253933</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2044526536542151</v>
+        <v>0.2044526536542648</v>
       </c>
       <c r="M9">
-        <v>0.8088170616130057</v>
+        <v>0.8088170616130128</v>
       </c>
       <c r="N9">
         <v>1.766846056288543</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.12703304126228</v>
+        <v>6.127033041262052</v>
       </c>
       <c r="C10">
-        <v>1.061764627951447</v>
+        <v>1.061764627951504</v>
       </c>
       <c r="D10">
-        <v>0.03967509301039485</v>
+        <v>0.03967509301038774</v>
       </c>
       <c r="E10">
-        <v>0.0267642509744821</v>
+        <v>0.02676425097445367</v>
       </c>
       <c r="F10">
         <v>4.025675335093638</v>
       </c>
       <c r="G10">
-        <v>0.0008080334707274663</v>
+        <v>0.0008080334707136563</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05330411730253637</v>
+        <v>0.05330411730254703</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2320173856256105</v>
+        <v>0.2320173856256389</v>
       </c>
       <c r="M10">
-        <v>0.9513861372545946</v>
+        <v>0.9513861372546017</v>
       </c>
       <c r="N10">
-        <v>1.715767052385488</v>
+        <v>1.715767052385431</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.576380477022326</v>
+        <v>6.576380477022269</v>
       </c>
       <c r="C11">
-        <v>1.148492299619249</v>
+        <v>1.148492299619022</v>
       </c>
       <c r="D11">
-        <v>0.04324379226045494</v>
+        <v>0.0432437922602773</v>
       </c>
       <c r="E11">
-        <v>0.0278822365548379</v>
+        <v>0.02788223655476685</v>
       </c>
       <c r="F11">
-        <v>4.225027433237614</v>
+        <v>4.225027433237585</v>
       </c>
       <c r="G11">
-        <v>0.0008004159723776867</v>
+        <v>0.0008004159723753267</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0528647988344888</v>
+        <v>0.05286479883453277</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2450703226532482</v>
+        <v>0.2450703226531772</v>
       </c>
       <c r="M11">
-        <v>1.01863231408884</v>
+        <v>1.018632314088819</v>
       </c>
       <c r="N11">
-        <v>1.696032207292063</v>
+        <v>1.696032207292134</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.749175407041946</v>
+        <v>6.749175407041889</v>
       </c>
       <c r="C12">
-        <v>1.181818201537112</v>
+        <v>1.181818201537169</v>
       </c>
       <c r="D12">
-        <v>0.04463531498313245</v>
+        <v>0.04463531498305429</v>
       </c>
       <c r="E12">
-        <v>0.02831256207214672</v>
+        <v>0.02831256207215471</v>
       </c>
       <c r="F12">
-        <v>4.302493939487874</v>
+        <v>4.302493939487846</v>
       </c>
       <c r="G12">
-        <v>0.0007975389420840371</v>
+        <v>0.0007975389420264989</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05269977581092533</v>
+        <v>0.05269977581084717</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2500977101067861</v>
+        <v>0.2500977101068003</v>
       </c>
       <c r="M12">
-        <v>1.044497329287204</v>
+        <v>1.044497329287182</v>
       </c>
       <c r="N12">
-        <v>1.689117776049713</v>
+        <v>1.689117776049699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.711836997407772</v>
+        <v>6.711836997407886</v>
       </c>
       <c r="C13">
-        <v>1.17461799155177</v>
+        <v>1.174617991551941</v>
       </c>
       <c r="D13">
-        <v>0.04433372520500711</v>
+        <v>0.04433372520502843</v>
       </c>
       <c r="E13">
-        <v>0.02821954980277219</v>
+        <v>0.0282195498026887</v>
       </c>
       <c r="F13">
-        <v>4.28571779462078</v>
+        <v>4.285717794620808</v>
       </c>
       <c r="G13">
-        <v>0.0007981582942668111</v>
+        <v>0.0007981582942717914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05273525740634177</v>
+        <v>0.0527352574061295</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2490110268494306</v>
+        <v>0.2490110268494021</v>
       </c>
       <c r="M13">
-        <v>1.038908041403481</v>
+        <v>1.038908041403467</v>
       </c>
       <c r="N13">
-        <v>1.690581104537429</v>
+        <v>1.690581104537486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.59054119674596</v>
+        <v>6.590541196746017</v>
       </c>
       <c r="C14">
-        <v>1.151223857750551</v>
+        <v>1.151223857750779</v>
       </c>
       <c r="D14">
-        <v>0.04335742811169041</v>
+        <v>0.04335742811186094</v>
       </c>
       <c r="E14">
-        <v>0.02791749145543498</v>
+        <v>0.02791749145548028</v>
       </c>
       <c r="F14">
         <v>4.231359452392041</v>
       </c>
       <c r="G14">
-        <v>0.0008001791504039014</v>
+        <v>0.0008001791503325135</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05285119563821628</v>
+        <v>0.05285119563829976</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2454821683517423</v>
+        <v>0.2454821683515007</v>
       </c>
       <c r="M14">
-        <v>1.020751867831208</v>
+        <v>1.02075186783123</v>
       </c>
       <c r="N14">
-        <v>1.695451809320957</v>
+        <v>1.695451809321057</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.51659964241145</v>
+        <v>6.516599642411563</v>
       </c>
       <c r="C15">
-        <v>1.136959795987877</v>
+        <v>1.136959795988105</v>
       </c>
       <c r="D15">
-        <v>0.0427648565194616</v>
+        <v>0.04276485651922002</v>
       </c>
       <c r="E15">
-        <v>0.02773342361469489</v>
+        <v>0.02773342361469133</v>
       </c>
       <c r="F15">
-        <v>4.198328944704372</v>
+        <v>4.198328944704429</v>
       </c>
       <c r="G15">
-        <v>0.000801417841025772</v>
+        <v>0.0008014178411566597</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05292238453560927</v>
+        <v>0.05292238453559595</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2433319904332905</v>
+        <v>0.2433319904332194</v>
       </c>
       <c r="M15">
-        <v>1.009684641322607</v>
+        <v>1.009684641322593</v>
       </c>
       <c r="N15">
-        <v>1.698509798754955</v>
+        <v>1.698509798754941</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.098014163763708</v>
+        <v>6.098014163763764</v>
       </c>
       <c r="C16">
-        <v>1.056160042080421</v>
+        <v>1.056160042080137</v>
       </c>
       <c r="D16">
-        <v>0.03944710696253395</v>
+        <v>0.03944710696267606</v>
       </c>
       <c r="E16">
-        <v>0.02669208428816106</v>
+        <v>0.02669208428819658</v>
       </c>
       <c r="F16">
-        <v>4.012909060060196</v>
+        <v>4.012909060060167</v>
       </c>
       <c r="G16">
-        <v>0.0008085325736598833</v>
+        <v>0.0008085325737316813</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05333301639328081</v>
+        <v>0.05333301639334032</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311755589456084</v>
+        <v>0.2311755589457221</v>
       </c>
       <c r="M16">
         <v>0.9470442045986758</v>
       </c>
       <c r="N16">
-        <v>1.717131766488436</v>
+        <v>1.717131766488407</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.845498267554945</v>
+        <v>5.845498267554888</v>
       </c>
       <c r="C17">
-        <v>1.00736805126229</v>
+        <v>1.007368051261835</v>
       </c>
       <c r="D17">
-        <v>0.0374759492670762</v>
+        <v>0.03747594926704778</v>
       </c>
       <c r="E17">
-        <v>0.02606414941549762</v>
+        <v>0.02606414941545054</v>
       </c>
       <c r="F17">
-        <v>3.902396302309882</v>
+        <v>3.902396302309796</v>
       </c>
       <c r="G17">
-        <v>0.0008129150270849695</v>
+        <v>0.00081291502689142</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05358733660260029</v>
+        <v>0.05358733660247239</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2238566637859947</v>
+        <v>0.223856663785952</v>
       </c>
       <c r="M17">
-        <v>0.9092664589501851</v>
+        <v>0.9092664589502135</v>
       </c>
       <c r="N17">
         <v>1.729489343558924</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.701708808547323</v>
+        <v>5.701708808547437</v>
       </c>
       <c r="C18">
-        <v>0.9795652215068458</v>
+        <v>0.9795652215068174</v>
       </c>
       <c r="D18">
-        <v>0.03636373397088732</v>
+        <v>0.03636373397088022</v>
       </c>
       <c r="E18">
-        <v>0.02570655757261608</v>
+        <v>0.02570655757261697</v>
       </c>
       <c r="F18">
-        <v>3.839941893290899</v>
+        <v>3.83994189329087</v>
       </c>
       <c r="G18">
-        <v>0.0008154434624917214</v>
+        <v>0.0008154434625490985</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05373450986017803</v>
+        <v>0.05373450986029926</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>5.653262637812361</v>
       </c>
       <c r="C19">
-        <v>0.9701943200544747</v>
+        <v>0.9701943200542189</v>
       </c>
       <c r="D19">
-        <v>0.03599067402640088</v>
+        <v>0.0359906740265572</v>
       </c>
       <c r="E19">
-        <v>0.02558606004278374</v>
+        <v>0.02558606004278818</v>
       </c>
       <c r="F19">
         <v>3.818979295893882</v>
       </c>
       <c r="G19">
-        <v>0.0008163009913349914</v>
+        <v>0.0008163009914668568</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05378449478890301</v>
+        <v>0.05378449478880043</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2182933442419142</v>
+        <v>0.2182933442420136</v>
       </c>
       <c r="M19">
-        <v>0.8805132224570613</v>
+        <v>0.88051322245704</v>
       </c>
       <c r="N19">
-        <v>1.739494183898913</v>
+        <v>1.739494183898941</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.872226254598388</v>
+        <v>5.872226254598161</v>
       </c>
       <c r="C20">
-        <v>1.012534502266362</v>
+        <v>1.012534502266078</v>
       </c>
       <c r="D20">
-        <v>0.03768350868338644</v>
+        <v>0.03768350868361381</v>
       </c>
       <c r="E20">
-        <v>0.02613061452684473</v>
+        <v>0.02613061452687226</v>
       </c>
       <c r="F20">
         <v>3.914044003506035</v>
       </c>
       <c r="G20">
-        <v>0.0008124477304031422</v>
+        <v>0.0008124477304866539</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0535601713599263</v>
+        <v>0.0535601713599112</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2246307712643301</v>
+        <v>0.2246307712643159</v>
       </c>
       <c r="M20">
-        <v>0.9132646853690076</v>
+        <v>0.9132646853689863</v>
       </c>
       <c r="N20">
-        <v>1.728139763491086</v>
+        <v>1.728139763491043</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.626093842735486</v>
+        <v>6.626093842735656</v>
       </c>
       <c r="C21">
-        <v>1.158081473061713</v>
+        <v>1.158081473061429</v>
       </c>
       <c r="D21">
-        <v>0.04364304365187621</v>
+        <v>0.04364304365190463</v>
       </c>
       <c r="E21">
-        <v>0.02800601225146071</v>
+        <v>0.02800601225144206</v>
       </c>
       <c r="F21">
         <v>4.247269967680552</v>
       </c>
       <c r="G21">
-        <v>0.0007995854049069346</v>
+        <v>0.000799585404969163</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05281710568191844</v>
+        <v>0.05281710568186515</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2465162931253815</v>
+        <v>0.2465162931254383</v>
       </c>
       <c r="M21">
-        <v>1.026073419476553</v>
+        <v>1.02607341947656</v>
       </c>
       <c r="N21">
-        <v>1.694005520302142</v>
+        <v>1.694005520302184</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.134377677253156</v>
+        <v>7.134377677253212</v>
       </c>
       <c r="C22">
-        <v>1.256070625891766</v>
+        <v>1.256070625891539</v>
       </c>
       <c r="D22">
-        <v>0.04777571137565673</v>
+        <v>0.04777571137579173</v>
       </c>
       <c r="E22">
-        <v>0.0292731124770409</v>
+        <v>0.02927311247703912</v>
       </c>
       <c r="F22">
         <v>4.476717430454016</v>
       </c>
       <c r="G22">
-        <v>0.0007912209113723075</v>
+        <v>0.0007912209115264341</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05233925358663516</v>
+        <v>0.05233925358669778</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2613185120560217</v>
+        <v>0.2613185120559933</v>
       </c>
       <c r="M22">
-        <v>1.102166404849761</v>
+        <v>1.10216640484974</v>
       </c>
       <c r="N22">
-        <v>1.67498538340061</v>
+        <v>1.674985383400667</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.861530029476569</v>
+        <v>6.861530029476683</v>
       </c>
       <c r="C23">
-        <v>1.203481111805843</v>
+        <v>1.2034811118059</v>
       </c>
       <c r="D23">
-        <v>0.04554582638122184</v>
+        <v>0.0455458263810371</v>
       </c>
       <c r="E23">
-        <v>0.02859253789874838</v>
+        <v>0.02859253789873151</v>
       </c>
       <c r="F23">
-        <v>4.353095471626801</v>
+        <v>4.353095471626716</v>
       </c>
       <c r="G23">
-        <v>0.0007956828170649531</v>
+        <v>0.0007956828171499722</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05259358840629424</v>
+        <v>0.05259358840641015</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2533687174992139</v>
+        <v>0.2533687174993418</v>
       </c>
       <c r="M23">
         <v>1.061316767569515</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.860138244826317</v>
+        <v>5.860138244826373</v>
       </c>
       <c r="C24">
-        <v>1.010197981937665</v>
+        <v>1.010197981937495</v>
       </c>
       <c r="D24">
-        <v>0.03758960604933037</v>
+        <v>0.03758960604901773</v>
       </c>
       <c r="E24">
-        <v>0.02610055510851783</v>
+        <v>0.02610055510851605</v>
       </c>
       <c r="F24">
         <v>3.908774729967519</v>
       </c>
       <c r="G24">
-        <v>0.0008126589672103328</v>
+        <v>0.0008126589672826087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05357244977010911</v>
+        <v>0.05357244977005848</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2242806556564005</v>
+        <v>0.2242806556564432</v>
       </c>
       <c r="M24">
-        <v>0.911456432965835</v>
+        <v>0.9114564329658208</v>
       </c>
       <c r="N24">
-        <v>1.728748887875241</v>
+        <v>1.72874888787517</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.83433420395977</v>
+        <v>4.8343342039596</v>
       </c>
       <c r="C25">
-        <v>0.8114668731113284</v>
+        <v>0.8114668731108736</v>
       </c>
       <c r="D25">
-        <v>0.02981278770781159</v>
+        <v>0.02981278770804607</v>
       </c>
       <c r="E25">
-        <v>0.02354563040789159</v>
+        <v>0.02354563040794755</v>
       </c>
       <c r="F25">
-        <v>3.471180851288636</v>
+        <v>3.471180851288665</v>
       </c>
       <c r="G25">
-        <v>0.0008312789243124758</v>
+        <v>0.000831278924377223</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05466265770461387</v>
+        <v>0.05466265770465828</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1946937289135562</v>
+        <v>0.1946937289135917</v>
       </c>
       <c r="M25">
-        <v>0.75809924539805</v>
+        <v>0.7580992453980286</v>
       </c>
       <c r="N25">
         <v>1.788435054670956</v>

--- a/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.113895829014723</v>
+        <v>2.433727310541201</v>
       </c>
       <c r="C2">
-        <v>0.6711352496096197</v>
+        <v>0.4522421152048253</v>
       </c>
       <c r="D2">
-        <v>0.02458080574979959</v>
+        <v>0.02576883917734207</v>
       </c>
       <c r="E2">
-        <v>0.0217377427578036</v>
+        <v>0.03735806356396942</v>
       </c>
       <c r="F2">
-        <v>3.17691676306886</v>
+        <v>1.168157558959763</v>
       </c>
       <c r="G2">
-        <v>0.0008453776740895393</v>
+        <v>0.9746098178578109</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004451500914237405</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05549617253690986</v>
+        <v>0.6539337846620441</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5921526696117638</v>
       </c>
       <c r="L2">
-        <v>0.1741132353254216</v>
+        <v>0.06397396275755085</v>
       </c>
       <c r="M2">
-        <v>0.6505458304188139</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.84127465499445</v>
+        <v>0.2143496923916004</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4421153349939928</v>
+      </c>
+      <c r="P2">
+        <v>0.9139283554287569</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.642434651241672</v>
+        <v>2.123655153488357</v>
       </c>
       <c r="C3">
-        <v>0.5787763373612904</v>
+        <v>0.3943467844092652</v>
       </c>
       <c r="D3">
-        <v>0.02126232897310842</v>
+        <v>0.02408652508262676</v>
       </c>
       <c r="E3">
-        <v>0.02054154180730627</v>
+        <v>0.03553968445566669</v>
       </c>
       <c r="F3">
-        <v>2.991622738553062</v>
+        <v>1.106238528760656</v>
       </c>
       <c r="G3">
-        <v>0.0008552271825083812</v>
+        <v>0.9120906175554495</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007087509591158114</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05608090601589399</v>
+        <v>0.6305148235034039</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5784611919285609</v>
       </c>
       <c r="L3">
-        <v>0.1607769941089785</v>
+        <v>0.06070129488618381</v>
       </c>
       <c r="M3">
-        <v>0.5802638863761658</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.881935511615467</v>
+        <v>0.1927114639764866</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3880409240315714</v>
+      </c>
+      <c r="P3">
+        <v>0.9517032415741031</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.359820459141304</v>
+        <v>1.933836696763535</v>
       </c>
       <c r="C4">
-        <v>0.5231391754564356</v>
+        <v>0.3588740635881607</v>
       </c>
       <c r="D4">
-        <v>0.01931414075421856</v>
+        <v>0.02305853164842198</v>
       </c>
       <c r="E4">
-        <v>0.01981671172231447</v>
+        <v>0.03441681202580393</v>
       </c>
       <c r="F4">
-        <v>2.883880839533333</v>
+        <v>1.06957228639159</v>
       </c>
       <c r="G4">
-        <v>0.0008614351487026448</v>
+        <v>0.8750348590264423</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009074713259882725</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0564499333263293</v>
+        <v>0.6169158262722618</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5708416527107332</v>
       </c>
       <c r="L4">
-        <v>0.1528500505993762</v>
+        <v>0.05866849193985324</v>
       </c>
       <c r="M4">
-        <v>0.5381863242484357</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.909095665081082</v>
+        <v>0.1794343957639342</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3549245507568131</v>
+      </c>
+      <c r="P4">
+        <v>0.975744833514673</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.246190218712513</v>
+        <v>1.856600426599414</v>
       </c>
       <c r="C5">
-        <v>0.5006984087866613</v>
+        <v>0.3444308635419873</v>
       </c>
       <c r="D5">
-        <v>0.01853968939902373</v>
+        <v>0.02264035093799421</v>
       </c>
       <c r="E5">
-        <v>0.01952314441409531</v>
+        <v>0.03395692651920273</v>
       </c>
       <c r="F5">
-        <v>2.841365200821983</v>
+        <v>1.054951389329709</v>
       </c>
       <c r="G5">
-        <v>0.0008640072732026827</v>
+        <v>0.8602480517845521</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00997272549687157</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05660285753962491</v>
+        <v>0.6115607120742084</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5679251179072793</v>
       </c>
       <c r="L5">
-        <v>0.1496801914589057</v>
+        <v>0.05783324964626857</v>
       </c>
       <c r="M5">
-        <v>0.5212817958532341</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.920688601394971</v>
+        <v>0.1740240875277834</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3414465709043171</v>
+      </c>
+      <c r="P5">
+        <v>0.9857501359174652</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.227409643477984</v>
+        <v>1.843781686921119</v>
       </c>
       <c r="C6">
-        <v>0.4969851017415294</v>
+        <v>0.3420331310206848</v>
       </c>
       <c r="D6">
-        <v>0.01841218429532532</v>
+        <v>0.02257094245264391</v>
       </c>
       <c r="E6">
-        <v>0.01947449000092405</v>
+        <v>0.03388040382297691</v>
       </c>
       <c r="F6">
-        <v>2.834385988272686</v>
+        <v>1.052542439744691</v>
       </c>
       <c r="G6">
-        <v>0.0008644369848392503</v>
+        <v>0.8578110658440892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01012703961233291</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05662840487346621</v>
+        <v>0.610682496320095</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5674519467202259</v>
       </c>
       <c r="L6">
-        <v>0.1491573415449992</v>
+        <v>0.05769411630689358</v>
       </c>
       <c r="M6">
-        <v>0.5184886777347586</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.922644567113139</v>
+        <v>0.1731256649537301</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3392094812436213</v>
+      </c>
+      <c r="P6">
+        <v>0.9874239400472842</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.358282015072234</v>
+        <v>1.932794624211908</v>
       </c>
       <c r="C7">
-        <v>0.5228356400621124</v>
+        <v>0.3586792366255054</v>
       </c>
       <c r="D7">
-        <v>0.01930362125749241</v>
+        <v>0.02305288959162333</v>
       </c>
       <c r="E7">
-        <v>0.01981274602755345</v>
+        <v>0.03441062008519402</v>
       </c>
       <c r="F7">
-        <v>2.88330198913026</v>
+        <v>1.06937382919277</v>
       </c>
       <c r="G7">
-        <v>0.0008614696634534573</v>
+        <v>0.8748341958050219</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009086472807073726</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05645198538371909</v>
+        <v>0.6168428622242885</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5708015682459973</v>
       </c>
       <c r="L7">
-        <v>0.1528070627913962</v>
+        <v>0.05865725660183685</v>
       </c>
       <c r="M7">
-        <v>0.5379573976935959</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.909249919628976</v>
+        <v>0.1793614322350692</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3547427178210754</v>
+      </c>
+      <c r="P7">
+        <v>0.9758789320952825</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.949792066715588</v>
+        <v>2.326680322609661</v>
       </c>
       <c r="C8">
-        <v>0.6390437274946805</v>
+        <v>0.4322600151616598</v>
       </c>
       <c r="D8">
-        <v>0.02341613196868053</v>
+        <v>0.02518743036045201</v>
       </c>
       <c r="E8">
-        <v>0.021322899536111</v>
+        <v>0.03673197612785972</v>
       </c>
       <c r="F8">
-        <v>3.111696500723042</v>
+        <v>1.146515368401865</v>
       </c>
       <c r="G8">
-        <v>0.0008487417731442015</v>
+        <v>0.9527638756808443</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005281108708662052</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05569573075628709</v>
+        <v>0.645691009192376</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5872626667895204</v>
       </c>
       <c r="L8">
-        <v>0.1694572465242175</v>
+        <v>0.06284979048939388</v>
       </c>
       <c r="M8">
-        <v>0.6260715988687124</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.854822205432342</v>
+        <v>0.2068857250936489</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4234500468026852</v>
+      </c>
+      <c r="P8">
+        <v>0.9267741255992128</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.173738777926815</v>
+        <v>3.104890939345523</v>
       </c>
       <c r="C9">
-        <v>0.8773331749134456</v>
+        <v>0.5774780193495985</v>
       </c>
       <c r="D9">
-        <v>0.0323437187731983</v>
+        <v>0.02943759544884372</v>
       </c>
       <c r="E9">
-        <v>0.02439240259338327</v>
+        <v>0.04126727123740814</v>
       </c>
       <c r="F9">
-        <v>3.613764051270067</v>
+        <v>1.309439148366963</v>
       </c>
       <c r="G9">
-        <v>0.0008249539061495118</v>
+        <v>1.117157193331607</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0009566259694668844</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05429072013253933</v>
+        <v>0.7089162648181428</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6262383590107845</v>
       </c>
       <c r="L9">
-        <v>0.2044526536542648</v>
+        <v>0.07093297601740467</v>
       </c>
       <c r="M9">
-        <v>0.8088170616130128</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.766846056288543</v>
+        <v>0.2610305736938869</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5590763319772236</v>
+      </c>
+      <c r="P9">
+        <v>0.8374406818884008</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.127033041262052</v>
+        <v>3.666165632865955</v>
       </c>
       <c r="C10">
-        <v>1.061764627951504</v>
+        <v>0.685730788679848</v>
       </c>
       <c r="D10">
-        <v>0.03967509301038774</v>
+        <v>0.03227515402822689</v>
       </c>
       <c r="E10">
-        <v>0.02676425097445367</v>
+        <v>0.0444456401560015</v>
       </c>
       <c r="F10">
-        <v>4.025675335093638</v>
+        <v>1.420749773834245</v>
       </c>
       <c r="G10">
-        <v>0.0008080334707136563</v>
+        <v>1.231409173236699</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001966543737008664</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05330411730254703</v>
+        <v>0.7526207881522851</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.651469076986146</v>
       </c>
       <c r="L10">
-        <v>0.2320173856256389</v>
+        <v>0.07731243646895258</v>
       </c>
       <c r="M10">
-        <v>0.9513861372546017</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.715767052385431</v>
+        <v>0.2927136063878351</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6522625109399272</v>
+      </c>
+      <c r="P10">
+        <v>0.7774876178813628</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.576380477022269</v>
+        <v>3.782224654778815</v>
       </c>
       <c r="C11">
-        <v>1.148492299619022</v>
+        <v>0.7397925121290996</v>
       </c>
       <c r="D11">
-        <v>0.0432437922602773</v>
+        <v>0.03062446810807984</v>
       </c>
       <c r="E11">
-        <v>0.02788223655476685</v>
+        <v>0.04600898546357524</v>
       </c>
       <c r="F11">
-        <v>4.225027433237585</v>
+        <v>1.328682953463755</v>
       </c>
       <c r="G11">
-        <v>0.0008004159723753267</v>
+        <v>1.155837723915823</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875157627860702</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05286479883453277</v>
+        <v>0.709147462825598</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5947589806170086</v>
       </c>
       <c r="L11">
-        <v>0.2450703226531772</v>
+        <v>0.0885646266341773</v>
       </c>
       <c r="M11">
-        <v>1.018632314088819</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.696032207292134</v>
+        <v>0.2389126912081849</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6314797095471008</v>
+      </c>
+      <c r="P11">
+        <v>0.7671519098207682</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.749175407041889</v>
+        <v>3.75845370812209</v>
       </c>
       <c r="C12">
-        <v>1.181818201537169</v>
+        <v>0.7626795331271694</v>
       </c>
       <c r="D12">
-        <v>0.04463531498305429</v>
+        <v>0.0288583678236396</v>
       </c>
       <c r="E12">
-        <v>0.02831256207215471</v>
+        <v>0.04905975912681004</v>
       </c>
       <c r="F12">
-        <v>4.302493939487846</v>
+        <v>1.228627864452491</v>
       </c>
       <c r="G12">
-        <v>0.0007975389420264989</v>
+        <v>1.068716260381962</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742015948445811</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05269977581084717</v>
+        <v>0.6633932934957301</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5429447925528805</v>
       </c>
       <c r="L12">
-        <v>0.2500977101068003</v>
+        <v>0.1026643553882209</v>
       </c>
       <c r="M12">
-        <v>1.044497329287182</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.689117776049699</v>
+        <v>0.1924777757322786</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5944100088926945</v>
+      </c>
+      <c r="P12">
+        <v>0.7788764528201426</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.711836997407886</v>
+        <v>3.625732154084687</v>
       </c>
       <c r="C13">
-        <v>1.174617991551941</v>
+        <v>0.7625997133154954</v>
       </c>
       <c r="D13">
-        <v>0.04433372520502843</v>
+        <v>0.02689823029463057</v>
       </c>
       <c r="E13">
-        <v>0.0282195498026887</v>
+        <v>0.05332966958717478</v>
       </c>
       <c r="F13">
-        <v>4.285717794620808</v>
+        <v>1.116663246799519</v>
       </c>
       <c r="G13">
-        <v>0.0007981582942717914</v>
+        <v>0.9676051523039035</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113178225924969</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0527352574061295</v>
+        <v>0.6131512883768835</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4917936770622831</v>
       </c>
       <c r="L13">
-        <v>0.2490110268494021</v>
+        <v>0.1194816198434623</v>
       </c>
       <c r="M13">
-        <v>1.038908041403467</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.690581104537486</v>
+        <v>0.149330349522721</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5429754505136728</v>
+      </c>
+      <c r="P13">
+        <v>0.8069178704586548</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.590541196746017</v>
+        <v>3.484166891348764</v>
       </c>
       <c r="C14">
-        <v>1.151223857750779</v>
+        <v>0.7521496641520855</v>
       </c>
       <c r="D14">
-        <v>0.04335742811186094</v>
+        <v>0.0254817133648455</v>
       </c>
       <c r="E14">
-        <v>0.02791749145548028</v>
+        <v>0.05713100897093426</v>
       </c>
       <c r="F14">
-        <v>4.231359452392041</v>
+        <v>1.033915801805179</v>
       </c>
       <c r="G14">
-        <v>0.0008001791503325135</v>
+        <v>0.8914031688420891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625719310906675</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05285119563829976</v>
+        <v>0.5763577827823383</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4568347897327882</v>
       </c>
       <c r="L14">
-        <v>0.2454821683515007</v>
+        <v>0.133078671966139</v>
       </c>
       <c r="M14">
-        <v>1.02075186783123</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.695451809321057</v>
+        <v>0.1216815054581133</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5009079802538636</v>
+      </c>
+      <c r="P14">
+        <v>0.8344070023904422</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.516599642411563</v>
+        <v>3.42710267111687</v>
       </c>
       <c r="C15">
-        <v>1.136959795988105</v>
+        <v>0.7446743718612652</v>
       </c>
       <c r="D15">
-        <v>0.04276485651922002</v>
+        <v>0.02506889743669838</v>
       </c>
       <c r="E15">
-        <v>0.02773342361469133</v>
+        <v>0.05798494992949621</v>
       </c>
       <c r="F15">
-        <v>4.198328944704429</v>
+        <v>1.011225628395195</v>
       </c>
       <c r="G15">
-        <v>0.0008014178411566597</v>
+        <v>0.8698950333172348</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751158165927365</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05292238453559595</v>
+        <v>0.5664786477234856</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4483355940318532</v>
       </c>
       <c r="L15">
-        <v>0.2433319904332194</v>
+        <v>0.1361343884982773</v>
       </c>
       <c r="M15">
-        <v>1.009684641322593</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.698509798754941</v>
+        <v>0.1149866155945745</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4876826040950277</v>
+      </c>
+      <c r="P15">
+        <v>0.8433640255165713</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.098014163763764</v>
+        <v>3.214890236752467</v>
       </c>
       <c r="C16">
-        <v>1.056160042080137</v>
+        <v>0.6975839539835533</v>
       </c>
       <c r="D16">
-        <v>0.03944710696267606</v>
+        <v>0.02427471907882328</v>
       </c>
       <c r="E16">
-        <v>0.02669208428819658</v>
+        <v>0.05553482124080489</v>
       </c>
       <c r="F16">
-        <v>4.012909060060167</v>
+        <v>0.9871656886864457</v>
       </c>
       <c r="G16">
-        <v>0.0008085325737316813</v>
+        <v>0.8420630122250543</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1626636888892961</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05333301639334032</v>
+        <v>0.5580718034223651</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4479966112468148</v>
       </c>
       <c r="L16">
-        <v>0.2311755589457221</v>
+        <v>0.1292765503575026</v>
       </c>
       <c r="M16">
-        <v>0.9470442045986758</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.717131766488407</v>
+        <v>0.1115200314547167</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4594880481857402</v>
+      </c>
+      <c r="P16">
+        <v>0.859698515625162</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.845498267554888</v>
+        <v>3.127380811086709</v>
       </c>
       <c r="C17">
-        <v>1.007368051261835</v>
+        <v>0.667166248023733</v>
       </c>
       <c r="D17">
-        <v>0.03747594926704778</v>
+        <v>0.02439274835411176</v>
       </c>
       <c r="E17">
-        <v>0.02606414941545054</v>
+        <v>0.05147301073328592</v>
       </c>
       <c r="F17">
-        <v>3.902396302309796</v>
+        <v>1.012428345989335</v>
       </c>
       <c r="G17">
-        <v>0.00081291502689142</v>
+        <v>0.861043702369571</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1251235310902814</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05358733660247239</v>
+        <v>0.5711522283594803</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4661986379120222</v>
       </c>
       <c r="L17">
-        <v>0.223856663785952</v>
+        <v>0.116425083177738</v>
       </c>
       <c r="M17">
-        <v>0.9092664589502135</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.729489343558924</v>
+        <v>0.1227820219804627</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4599407389043506</v>
+      </c>
+      <c r="P17">
+        <v>0.8577838109778639</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.701708808547437</v>
+        <v>3.135845924717444</v>
       </c>
       <c r="C18">
-        <v>0.9795652215068174</v>
+        <v>0.6475475632088603</v>
       </c>
       <c r="D18">
-        <v>0.03636373397088022</v>
+        <v>0.02542487418974204</v>
       </c>
       <c r="E18">
-        <v>0.02570655757261697</v>
+        <v>0.04668907915448184</v>
       </c>
       <c r="F18">
-        <v>3.83994189329087</v>
+        <v>1.083937332439902</v>
       </c>
       <c r="G18">
-        <v>0.0008154434625490985</v>
+        <v>0.9231346294330791</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07237119611509968</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05373450986029926</v>
+        <v>0.6044347449600878</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5032564912942732</v>
       </c>
       <c r="L18">
-        <v>0.2196946520164431</v>
+        <v>0.09970999386048618</v>
       </c>
       <c r="M18">
-        <v>0.8877589112248145</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.736922904942304</v>
+        <v>0.1509866484569926</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.485395459648899</v>
+      </c>
+      <c r="P18">
+        <v>0.8434073100656931</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.653262637812361</v>
+        <v>3.220421607347362</v>
       </c>
       <c r="C19">
-        <v>0.9701943200542189</v>
+        <v>0.6380668010526733</v>
       </c>
       <c r="D19">
-        <v>0.0359906740265572</v>
+        <v>0.02730956022536724</v>
       </c>
       <c r="E19">
-        <v>0.02558606004278818</v>
+        <v>0.04331794088918706</v>
       </c>
       <c r="F19">
-        <v>3.818979295893882</v>
+        <v>1.190020811079464</v>
       </c>
       <c r="G19">
-        <v>0.0008163009914668568</v>
+        <v>1.017555718184667</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02696151609981712</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05378449478880043</v>
+        <v>0.6524599530488189</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5545669309730528</v>
       </c>
       <c r="L19">
-        <v>0.2182933442420136</v>
+        <v>0.08507759247139646</v>
       </c>
       <c r="M19">
-        <v>0.88051322245704</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.739494183898941</v>
+        <v>0.1954906311094859</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5299852544744823</v>
+      </c>
+      <c r="P19">
+        <v>0.8249633396398721</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.872226254598161</v>
+        <v>3.517716080669743</v>
       </c>
       <c r="C20">
-        <v>1.012534502266078</v>
+        <v>0.6572328078018757</v>
       </c>
       <c r="D20">
-        <v>0.03768350868361381</v>
+        <v>0.03150791520132401</v>
       </c>
       <c r="E20">
-        <v>0.02613061452687226</v>
+        <v>0.04359414002845541</v>
       </c>
       <c r="F20">
-        <v>3.914044003506035</v>
+        <v>1.390204940388529</v>
       </c>
       <c r="G20">
-        <v>0.0008124477304866539</v>
+        <v>1.20015161768552</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002248036600467351</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0535601713599112</v>
+        <v>0.7404874512571098</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6441564439830287</v>
       </c>
       <c r="L20">
-        <v>0.2246307712643159</v>
+        <v>0.07564369164886564</v>
       </c>
       <c r="M20">
-        <v>0.9132646853689863</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.728139763491043</v>
+        <v>0.2840332600193136</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.627434135807988</v>
+      </c>
+      <c r="P20">
+        <v>0.7929002503843297</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.626093842735656</v>
+        <v>3.975409790015078</v>
       </c>
       <c r="C21">
-        <v>1.158081473061429</v>
+        <v>0.7400178249747569</v>
       </c>
       <c r="D21">
-        <v>0.04364304365190463</v>
+        <v>0.03428228907536024</v>
       </c>
       <c r="E21">
-        <v>0.02800601225144206</v>
+        <v>0.04636521835885743</v>
       </c>
       <c r="F21">
-        <v>4.247269967680552</v>
+        <v>1.504764637012144</v>
       </c>
       <c r="G21">
-        <v>0.000799585404969163</v>
+        <v>1.314299738199622</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001591662062314647</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05281710568186515</v>
+        <v>0.7873137386115729</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6778293677024365</v>
       </c>
       <c r="L21">
-        <v>0.2465162931254383</v>
+        <v>0.07986300205279662</v>
       </c>
       <c r="M21">
-        <v>1.02607341947656</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.694005520302184</v>
+        <v>0.3213703901801779</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7106175438516544</v>
+      </c>
+      <c r="P21">
+        <v>0.7468200462268388</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.134377677253212</v>
+        <v>4.268105895301915</v>
       </c>
       <c r="C22">
-        <v>1.256070625891539</v>
+        <v>0.7947410306143752</v>
       </c>
       <c r="D22">
-        <v>0.04777571137579173</v>
+        <v>0.03593855966711246</v>
       </c>
       <c r="E22">
-        <v>0.02927311247703912</v>
+        <v>0.04809987326174159</v>
       </c>
       <c r="F22">
-        <v>4.476717430454016</v>
+        <v>1.573067225870048</v>
       </c>
       <c r="G22">
-        <v>0.0007912209115264341</v>
+        <v>1.383298005581224</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0007143208706958948</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05233925358669778</v>
+        <v>0.8152034489796165</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6967764697060872</v>
       </c>
       <c r="L22">
-        <v>0.2613185120559933</v>
+        <v>0.08286698364285883</v>
       </c>
       <c r="M22">
-        <v>1.10216640484974</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.674985383400667</v>
+        <v>0.3416233866278588</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7615313335953928</v>
+      </c>
+      <c r="P22">
+        <v>0.7181811339952002</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.861530029476683</v>
+        <v>4.111720691435039</v>
       </c>
       <c r="C23">
-        <v>1.2034811118059</v>
+        <v>0.7654971426773329</v>
       </c>
       <c r="D23">
-        <v>0.0455458263810371</v>
+        <v>0.03505176422190459</v>
       </c>
       <c r="E23">
-        <v>0.02859253789873151</v>
+        <v>0.04717142359392068</v>
       </c>
       <c r="F23">
-        <v>4.353095471626716</v>
+        <v>1.536419994355981</v>
       </c>
       <c r="G23">
-        <v>0.0007956828171499722</v>
+        <v>1.346272733448501</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0003692490742763788</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05259358840641015</v>
+        <v>0.8002130179670246</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6865597196541273</v>
       </c>
       <c r="L23">
-        <v>0.2533687174993418</v>
+        <v>0.08126123719269529</v>
       </c>
       <c r="M23">
-        <v>1.061316767569515</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.68481540116062</v>
+        <v>0.3308041587668242</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7343309299873937</v>
+      </c>
+      <c r="P23">
+        <v>0.7333766616876396</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.860138244826373</v>
+        <v>3.522872364845739</v>
       </c>
       <c r="C24">
-        <v>1.010197981937495</v>
+        <v>0.6554902537059775</v>
       </c>
       <c r="D24">
-        <v>0.03758960604901773</v>
+        <v>0.03174966115600952</v>
       </c>
       <c r="E24">
-        <v>0.02610055510851605</v>
+        <v>0.04370613927436517</v>
       </c>
       <c r="F24">
-        <v>3.908774729967519</v>
+        <v>1.401686406658257</v>
       </c>
       <c r="G24">
-        <v>0.0008126589672826087</v>
+        <v>1.210237279991176</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.390161990996404E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05357244977005848</v>
+        <v>0.7456609102968059</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6500716689749879</v>
       </c>
       <c r="L24">
-        <v>0.2242806556564432</v>
+        <v>0.07522466089099566</v>
       </c>
       <c r="M24">
-        <v>0.9114564329658208</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.72874888787517</v>
+        <v>0.290025440253288</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6318611363646269</v>
+      </c>
+      <c r="P24">
+        <v>0.7928494726233168</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.8343342039596</v>
+        <v>2.893546418512187</v>
       </c>
       <c r="C25">
-        <v>0.8114668731108736</v>
+        <v>0.5380441176334614</v>
       </c>
       <c r="D25">
-        <v>0.02981278770804607</v>
+        <v>0.02827719714985832</v>
       </c>
       <c r="E25">
-        <v>0.02354563040794755</v>
+        <v>0.04003718626798414</v>
       </c>
       <c r="F25">
-        <v>3.471180851288665</v>
+        <v>1.263981083814471</v>
       </c>
       <c r="G25">
-        <v>0.000831278924377223</v>
+        <v>1.071296426900943</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001759628665631618</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05466265770465828</v>
+        <v>0.691031600089218</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6149114428687099</v>
       </c>
       <c r="L25">
-        <v>0.1946937289135917</v>
+        <v>0.0687541401221532</v>
       </c>
       <c r="M25">
-        <v>0.7580992453980286</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.788435054670956</v>
+        <v>0.2463499022043436</v>
       </c>
       <c r="O25">
+        <v>0.5222582164555263</v>
+      </c>
+      <c r="P25">
+        <v>0.8608285755123841</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.433727310541201</v>
+        <v>2.300690383460619</v>
       </c>
       <c r="C2">
-        <v>0.4522421152048253</v>
+        <v>0.4888665720061169</v>
       </c>
       <c r="D2">
-        <v>0.02576883917734207</v>
+        <v>0.02907684834102042</v>
       </c>
       <c r="E2">
-        <v>0.03735806356396942</v>
+        <v>0.03723574267095742</v>
       </c>
       <c r="F2">
-        <v>1.168157558959763</v>
+        <v>1.062289428538122</v>
       </c>
       <c r="G2">
-        <v>0.9746098178578109</v>
+        <v>0.84771400325792</v>
       </c>
       <c r="H2">
-        <v>0.004451500914237405</v>
+        <v>0.003588556225746387</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6539337846620441</v>
+        <v>0.6258692075465007</v>
       </c>
       <c r="K2">
-        <v>0.5921526696117638</v>
+        <v>0.5110503698105617</v>
       </c>
       <c r="L2">
-        <v>0.06397396275755085</v>
+        <v>0.2357841017403324</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1531592704515639</v>
       </c>
       <c r="N2">
-        <v>0.2143496923916004</v>
+        <v>0.06304123285874397</v>
       </c>
       <c r="O2">
-        <v>0.4421153349939928</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9139283554287569</v>
+        <v>0.234733175995153</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4317856456467055</v>
+      </c>
+      <c r="R2">
+        <v>0.8889247392945911</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123655153488357</v>
+        <v>2.012608126641226</v>
       </c>
       <c r="C3">
-        <v>0.3943467844092652</v>
+        <v>0.4232683078446655</v>
       </c>
       <c r="D3">
-        <v>0.02408652508262676</v>
+        <v>0.02734724657728904</v>
       </c>
       <c r="E3">
-        <v>0.03553968445566669</v>
+        <v>0.03569573028697159</v>
       </c>
       <c r="F3">
-        <v>1.106238528760656</v>
+        <v>1.010883005122608</v>
       </c>
       <c r="G3">
-        <v>0.9120906175554495</v>
+        <v>0.7990682117616643</v>
       </c>
       <c r="H3">
-        <v>0.007087509591158114</v>
+        <v>0.005711027725039952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6305148235034039</v>
+        <v>0.6025296648487313</v>
       </c>
       <c r="K3">
-        <v>0.5784611919285609</v>
+        <v>0.50317238325011</v>
       </c>
       <c r="L3">
-        <v>0.06070129488618381</v>
+        <v>0.2379162126821583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1461349031882726</v>
       </c>
       <c r="N3">
-        <v>0.1927114639764866</v>
+        <v>0.05988047471813296</v>
       </c>
       <c r="O3">
-        <v>0.3880409240315714</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9517032415741031</v>
+        <v>0.211575596619447</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3793594714174873</v>
+      </c>
+      <c r="R3">
+        <v>0.9193714533062547</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.933836696763535</v>
+        <v>1.835688696789873</v>
       </c>
       <c r="C4">
-        <v>0.3588740635881607</v>
+        <v>0.3831552529746602</v>
       </c>
       <c r="D4">
-        <v>0.02305853164842198</v>
+        <v>0.02629306105464124</v>
       </c>
       <c r="E4">
-        <v>0.03441681202580393</v>
+        <v>0.03474160847094171</v>
       </c>
       <c r="F4">
-        <v>1.06957228639159</v>
+        <v>0.9803057976465155</v>
       </c>
       <c r="G4">
-        <v>0.8750348590264423</v>
+        <v>0.7703736812220257</v>
       </c>
       <c r="H4">
-        <v>0.009074713259882725</v>
+        <v>0.007312532526309395</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6169158262722618</v>
+        <v>0.5885028461397468</v>
       </c>
       <c r="K4">
-        <v>0.5708416527107332</v>
+        <v>0.4988690348422615</v>
       </c>
       <c r="L4">
-        <v>0.05866849193985324</v>
+        <v>0.2392579509623047</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.142724263410134</v>
       </c>
       <c r="N4">
-        <v>0.1794343957639342</v>
+        <v>0.0579174096535624</v>
       </c>
       <c r="O4">
-        <v>0.3549245507568131</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.975744833514673</v>
+        <v>0.197392028348645</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3471951821576837</v>
+      </c>
+      <c r="R4">
+        <v>0.9388973567090169</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856600426599414</v>
+        <v>1.763566091401287</v>
       </c>
       <c r="C5">
-        <v>0.3444308635419873</v>
+        <v>0.3668437103322901</v>
       </c>
       <c r="D5">
-        <v>0.02264035093799421</v>
+        <v>0.0258650931456188</v>
       </c>
       <c r="E5">
-        <v>0.03395692651920273</v>
+        <v>0.03435011869820992</v>
       </c>
       <c r="F5">
-        <v>1.054951389329709</v>
+        <v>0.9680788530214741</v>
       </c>
       <c r="G5">
-        <v>0.8602480517845521</v>
+        <v>0.7589566685201135</v>
       </c>
       <c r="H5">
-        <v>0.00997272549687157</v>
+        <v>0.008036652474188916</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6115607120742084</v>
+        <v>0.5828586019731716</v>
       </c>
       <c r="K5">
-        <v>0.5679251179072793</v>
+        <v>0.497243020325449</v>
       </c>
       <c r="L5">
-        <v>0.05783324964626857</v>
+        <v>0.2398124223236238</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1415563312190216</v>
       </c>
       <c r="N5">
-        <v>0.1740240875277834</v>
+        <v>0.05711102310415495</v>
       </c>
       <c r="O5">
-        <v>0.3414465709043171</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9857501359174652</v>
+        <v>0.1916192598810866</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3340912226459167</v>
+      </c>
+      <c r="R5">
+        <v>0.9470592154737147</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.843781686921119</v>
+        <v>1.751588095149316</v>
       </c>
       <c r="C6">
-        <v>0.3420331310206848</v>
+        <v>0.3641371126313686</v>
       </c>
       <c r="D6">
-        <v>0.02257094245264391</v>
+        <v>0.02579411783967345</v>
       </c>
       <c r="E6">
-        <v>0.03388040382297691</v>
+        <v>0.03428493549203765</v>
       </c>
       <c r="F6">
-        <v>1.052542439744691</v>
+        <v>0.9660622687234763</v>
       </c>
       <c r="G6">
-        <v>0.8578110658440892</v>
+        <v>0.7570770268624329</v>
       </c>
       <c r="H6">
-        <v>0.01012703961233291</v>
+        <v>0.008161109869757793</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.610682496320095</v>
+        <v>0.5819255860143357</v>
       </c>
       <c r="K6">
-        <v>0.5674519467202259</v>
+        <v>0.4969805435270764</v>
       </c>
       <c r="L6">
-        <v>0.05769411630689358</v>
+        <v>0.2399049428654116</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1413756605418506</v>
       </c>
       <c r="N6">
-        <v>0.1731256649537301</v>
+        <v>0.05697671266511772</v>
       </c>
       <c r="O6">
-        <v>0.3392094812436213</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9874239400472842</v>
+        <v>0.1906610793591241</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3319154267906228</v>
+      </c>
+      <c r="R6">
+        <v>0.9484267426600752</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.932794624211908</v>
+        <v>1.83291725026919</v>
       </c>
       <c r="C7">
-        <v>0.3586792366255054</v>
+        <v>0.3819518305482461</v>
       </c>
       <c r="D7">
-        <v>0.02305288959162333</v>
+        <v>0.02636703422151498</v>
       </c>
       <c r="E7">
-        <v>0.03441062008519402</v>
+        <v>0.03473563735901114</v>
       </c>
       <c r="F7">
-        <v>1.06937382919277</v>
+        <v>0.9784517362249403</v>
       </c>
       <c r="G7">
-        <v>0.8748341958050219</v>
+        <v>0.7739529497886366</v>
       </c>
       <c r="H7">
-        <v>0.009086472807073726</v>
+        <v>0.007331698301716427</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6168428622242885</v>
+        <v>0.5815334268591528</v>
       </c>
       <c r="K7">
-        <v>0.5708015682459973</v>
+        <v>0.4980545678241519</v>
       </c>
       <c r="L7">
-        <v>0.05865725660183685</v>
+        <v>0.2389048477861593</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1424714128869375</v>
       </c>
       <c r="N7">
-        <v>0.1793614322350692</v>
+        <v>0.05788678947373782</v>
       </c>
       <c r="O7">
-        <v>0.3547427178210754</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9758789320952825</v>
+        <v>0.1972316903240241</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.34672799423155</v>
+      </c>
+      <c r="R7">
+        <v>0.9391330801993725</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.326680322609661</v>
+        <v>2.195320709355997</v>
       </c>
       <c r="C8">
-        <v>0.4322600151616598</v>
+        <v>0.4628968354513461</v>
       </c>
       <c r="D8">
-        <v>0.02518743036045201</v>
+        <v>0.02874944337739649</v>
       </c>
       <c r="E8">
-        <v>0.03673197612785972</v>
+        <v>0.0367048563249982</v>
       </c>
       <c r="F8">
-        <v>1.146515368401865</v>
+        <v>1.038752553644386</v>
       </c>
       <c r="G8">
-        <v>0.9527638756808443</v>
+        <v>0.8431822505977635</v>
       </c>
       <c r="H8">
-        <v>0.005281108708662052</v>
+        <v>0.004279337476013723</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.645691009192376</v>
+        <v>0.5950882769443098</v>
       </c>
       <c r="K8">
-        <v>0.5872626667895204</v>
+        <v>0.5056135826184303</v>
       </c>
       <c r="L8">
-        <v>0.06284979048939388</v>
+        <v>0.2354037977747332</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1496904654470796</v>
       </c>
       <c r="N8">
-        <v>0.2068857250936489</v>
+        <v>0.06189139731480608</v>
       </c>
       <c r="O8">
-        <v>0.4234500468026852</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9267741255992128</v>
+        <v>0.2264648743003832</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4127265233507913</v>
+      </c>
+      <c r="R8">
+        <v>0.899795219444556</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.104890939345523</v>
+        <v>2.913105913867582</v>
       </c>
       <c r="C9">
-        <v>0.5774780193495985</v>
+        <v>0.6268157302016277</v>
       </c>
       <c r="D9">
-        <v>0.02943759544884372</v>
+        <v>0.03320762234544006</v>
       </c>
       <c r="E9">
-        <v>0.04126727123740814</v>
+        <v>0.04052550488334772</v>
       </c>
       <c r="F9">
-        <v>1.309439148366963</v>
+        <v>1.171652395657375</v>
       </c>
       <c r="G9">
-        <v>1.117157193331607</v>
+        <v>0.975511635813703</v>
       </c>
       <c r="H9">
-        <v>0.0009566259694668844</v>
+        <v>0.00078802089731278</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7089162648181428</v>
+        <v>0.6489321866652773</v>
       </c>
       <c r="K9">
-        <v>0.6262383590107845</v>
+        <v>0.5278597882600025</v>
       </c>
       <c r="L9">
-        <v>0.07093297601740467</v>
+        <v>0.2301376487397668</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1720942247631072</v>
       </c>
       <c r="N9">
-        <v>0.2610305736938869</v>
+        <v>0.06967650747586873</v>
       </c>
       <c r="O9">
-        <v>0.5590763319772236</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8374406818884008</v>
+        <v>0.2844540289708135</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5435643820261262</v>
+      </c>
+      <c r="R9">
+        <v>0.8289921647170146</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.666165632865955</v>
+        <v>3.417871468019314</v>
       </c>
       <c r="C10">
-        <v>0.685730788679848</v>
+        <v>0.7425249260222984</v>
       </c>
       <c r="D10">
-        <v>0.03227515402822689</v>
+        <v>0.03660407742667005</v>
       </c>
       <c r="E10">
-        <v>0.0444456401560015</v>
+        <v>0.04318527049530285</v>
       </c>
       <c r="F10">
-        <v>1.420749773834245</v>
+        <v>1.251223684119907</v>
       </c>
       <c r="G10">
-        <v>1.231409173236699</v>
+        <v>1.090043850682704</v>
       </c>
       <c r="H10">
-        <v>0.0001966543737008664</v>
+        <v>0.0001997482145537077</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7526207881522851</v>
+        <v>0.6455832863398854</v>
       </c>
       <c r="K10">
-        <v>0.651469076986146</v>
+        <v>0.5365628310636623</v>
       </c>
       <c r="L10">
-        <v>0.07731243646895258</v>
+        <v>0.2225651317346511</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.189101991733498</v>
       </c>
       <c r="N10">
-        <v>0.2927136063878351</v>
+        <v>0.07595753127653104</v>
       </c>
       <c r="O10">
-        <v>0.6522625109399272</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7774876178813628</v>
+        <v>0.3180097087190035</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6313425947967488</v>
+      </c>
+      <c r="R10">
+        <v>0.7853625601416496</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.782224654778815</v>
+        <v>3.51163928367896</v>
       </c>
       <c r="C11">
-        <v>0.7397925121290996</v>
+        <v>0.7835669434507508</v>
       </c>
       <c r="D11">
-        <v>0.03062446810807984</v>
+        <v>0.03513922569803896</v>
       </c>
       <c r="E11">
-        <v>0.04600898546357524</v>
+        <v>0.04459790780508888</v>
       </c>
       <c r="F11">
-        <v>1.328682953463755</v>
+        <v>1.149438334305501</v>
       </c>
       <c r="G11">
-        <v>1.155837723915823</v>
+        <v>1.071549469482392</v>
       </c>
       <c r="H11">
-        <v>0.01875157627860702</v>
+        <v>0.01875428581645977</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.709147462825598</v>
+        <v>0.5349655342472062</v>
       </c>
       <c r="K11">
-        <v>0.5947589806170086</v>
+        <v>0.4804186327174236</v>
       </c>
       <c r="L11">
-        <v>0.0885646266341773</v>
+        <v>0.1979930323261669</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1730209594149237</v>
       </c>
       <c r="N11">
-        <v>0.2389126912081849</v>
+        <v>0.0889026339024177</v>
       </c>
       <c r="O11">
-        <v>0.6314797095471008</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7671519098207682</v>
+        <v>0.2596631849767022</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.60756737924779</v>
+      </c>
+      <c r="R11">
+        <v>0.7982602059268444</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.75845370812209</v>
+        <v>3.488481920238144</v>
       </c>
       <c r="C12">
-        <v>0.7626795331271694</v>
+        <v>0.7972603780947054</v>
       </c>
       <c r="D12">
-        <v>0.0288583678236396</v>
+        <v>0.03300678165276238</v>
       </c>
       <c r="E12">
-        <v>0.04905975912681004</v>
+        <v>0.04746853559162201</v>
       </c>
       <c r="F12">
-        <v>1.228627864452491</v>
+        <v>1.054805969696233</v>
       </c>
       <c r="G12">
-        <v>1.068716260381962</v>
+        <v>1.016594627430848</v>
       </c>
       <c r="H12">
-        <v>0.05742015948445811</v>
+        <v>0.05742829701082286</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6633932934957301</v>
+        <v>0.4705650195766253</v>
       </c>
       <c r="K12">
-        <v>0.5429447925528805</v>
+        <v>0.4357440397320076</v>
       </c>
       <c r="L12">
-        <v>0.1026643553882209</v>
+        <v>0.1809522731642623</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1570233987624263</v>
       </c>
       <c r="N12">
-        <v>0.1924777757322786</v>
+        <v>0.1042914126503192</v>
       </c>
       <c r="O12">
-        <v>0.5944100088926945</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7788764528201426</v>
+        <v>0.2095755941112358</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5703470612338677</v>
+      </c>
+      <c r="R12">
+        <v>0.8253540452816779</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.625732154084687</v>
+        <v>3.378785273905805</v>
       </c>
       <c r="C13">
-        <v>0.7625997133154954</v>
+        <v>0.7933311831285721</v>
       </c>
       <c r="D13">
-        <v>0.02689823029463057</v>
+        <v>0.03018525030103447</v>
       </c>
       <c r="E13">
-        <v>0.05332966958717478</v>
+        <v>0.05174857778541941</v>
       </c>
       <c r="F13">
-        <v>1.116663246799519</v>
+        <v>0.9628077393912378</v>
       </c>
       <c r="G13">
-        <v>0.9676051523039035</v>
+        <v>0.9219087965602739</v>
       </c>
       <c r="H13">
-        <v>0.113178225924969</v>
+        <v>0.1131965348190533</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6131512883768835</v>
+        <v>0.4433628778018885</v>
       </c>
       <c r="K13">
-        <v>0.4917936770622831</v>
+        <v>0.3980324985943895</v>
       </c>
       <c r="L13">
-        <v>0.1194816198434623</v>
+        <v>0.1683358533955648</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.140943246710151</v>
       </c>
       <c r="N13">
-        <v>0.149330349522721</v>
+        <v>0.1222573680290324</v>
       </c>
       <c r="O13">
-        <v>0.5429754505136728</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8069178704586548</v>
+        <v>0.1633372975838014</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5214997367107514</v>
+      </c>
+      <c r="R13">
+        <v>0.8603731578383744</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.484166891348764</v>
+        <v>3.262852588379417</v>
       </c>
       <c r="C14">
-        <v>0.7521496641520855</v>
+        <v>0.7825181581780498</v>
       </c>
       <c r="D14">
-        <v>0.0254817133648455</v>
+        <v>0.02805057006893996</v>
       </c>
       <c r="E14">
-        <v>0.05713100897093426</v>
+        <v>0.05572728933968918</v>
       </c>
       <c r="F14">
-        <v>1.033915801805179</v>
+        <v>0.8994674342683595</v>
       </c>
       <c r="G14">
-        <v>0.8914031688420891</v>
+        <v>0.8402774333342791</v>
       </c>
       <c r="H14">
-        <v>0.1625719310906675</v>
+        <v>0.1625854066340082</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5763577827823383</v>
+        <v>0.4382853589850981</v>
       </c>
       <c r="K14">
-        <v>0.4568347897327882</v>
+        <v>0.3746368969319249</v>
       </c>
       <c r="L14">
-        <v>0.133078671966139</v>
+        <v>0.1612293245766274</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1298324587938318</v>
       </c>
       <c r="N14">
-        <v>0.1216815054581133</v>
+        <v>0.1365845357366453</v>
       </c>
       <c r="O14">
-        <v>0.5009079802538636</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8344070023904422</v>
+        <v>0.133760954889361</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4823068055633541</v>
+      </c>
+      <c r="R14">
+        <v>0.8880081267417879</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.42710267111687</v>
+        <v>3.216190064237026</v>
       </c>
       <c r="C15">
-        <v>0.7446743718612652</v>
+        <v>0.7759265175832581</v>
       </c>
       <c r="D15">
-        <v>0.02506889743669838</v>
+        <v>0.02741797434458348</v>
       </c>
       <c r="E15">
-        <v>0.05798494992949621</v>
+        <v>0.05671011505780932</v>
       </c>
       <c r="F15">
-        <v>1.011225628395195</v>
+        <v>0.8838973229175622</v>
       </c>
       <c r="G15">
-        <v>0.8698950333172348</v>
+        <v>0.8135410138922339</v>
       </c>
       <c r="H15">
-        <v>0.1751158165927365</v>
+        <v>0.1751221379730623</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5664786477234856</v>
+        <v>0.4428660377289191</v>
       </c>
       <c r="K15">
-        <v>0.4483355940318532</v>
+        <v>0.3699404413924121</v>
       </c>
       <c r="L15">
-        <v>0.1361343884982773</v>
+        <v>0.160141443078988</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.127057410295329</v>
       </c>
       <c r="N15">
-        <v>0.1149866155945745</v>
+        <v>0.1398179616084292</v>
       </c>
       <c r="O15">
-        <v>0.4876826040950277</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8433640255165713</v>
+        <v>0.126654349539649</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4702443383158723</v>
+      </c>
+      <c r="R15">
+        <v>0.8950621202534137</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.214890236752467</v>
+        <v>3.039866436997954</v>
       </c>
       <c r="C16">
-        <v>0.6975839539835533</v>
+        <v>0.7362531407854647</v>
       </c>
       <c r="D16">
-        <v>0.02427471907882328</v>
+        <v>0.02620739061083555</v>
       </c>
       <c r="E16">
-        <v>0.05553482124080489</v>
+        <v>0.0549292877625529</v>
       </c>
       <c r="F16">
-        <v>0.9871656886864457</v>
+        <v>0.8808660719514165</v>
       </c>
       <c r="G16">
-        <v>0.8420630122250543</v>
+        <v>0.7541658784503085</v>
       </c>
       <c r="H16">
-        <v>0.1626636888892961</v>
+        <v>0.1625956574689553</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5580718034223651</v>
+        <v>0.4938051215977737</v>
       </c>
       <c r="K16">
-        <v>0.4479966112468148</v>
+        <v>0.3785051934784143</v>
       </c>
       <c r="L16">
-        <v>0.1292765503575026</v>
+        <v>0.166131186210599</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1258937701134144</v>
       </c>
       <c r="N16">
-        <v>0.1115200314547167</v>
+        <v>0.1329932022176408</v>
       </c>
       <c r="O16">
-        <v>0.4594880481857402</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.859698515625162</v>
+        <v>0.1235869031044672</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.44606569128171</v>
+      </c>
+      <c r="R16">
+        <v>0.8958325266664104</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.127380811086709</v>
+        <v>2.963445103864785</v>
       </c>
       <c r="C17">
-        <v>0.667166248023733</v>
+        <v>0.7099254983430967</v>
       </c>
       <c r="D17">
-        <v>0.02439274835411176</v>
+        <v>0.02636762147523797</v>
       </c>
       <c r="E17">
-        <v>0.05147301073328592</v>
+        <v>0.05111699731643071</v>
       </c>
       <c r="F17">
-        <v>1.012428345989335</v>
+        <v>0.9106140671494103</v>
       </c>
       <c r="G17">
-        <v>0.861043702369571</v>
+        <v>0.7560396918722319</v>
       </c>
       <c r="H17">
-        <v>0.1251235310902814</v>
+        <v>0.1249907832341819</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5711522283594803</v>
+        <v>0.530819607930539</v>
       </c>
       <c r="K17">
-        <v>0.4661986379120222</v>
+        <v>0.3970316385484658</v>
       </c>
       <c r="L17">
-        <v>0.116425083177738</v>
+        <v>0.1746819099488768</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1304651389711289</v>
       </c>
       <c r="N17">
-        <v>0.1227820219804627</v>
+        <v>0.1197185947093473</v>
       </c>
       <c r="O17">
-        <v>0.4599407389043506</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8577838109778639</v>
+        <v>0.1361252219744102</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4477694046695149</v>
+      </c>
+      <c r="R17">
+        <v>0.884099533085795</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.135845924717444</v>
+        <v>2.967575334040475</v>
       </c>
       <c r="C18">
-        <v>0.6475475632088603</v>
+        <v>0.6943823964648459</v>
       </c>
       <c r="D18">
-        <v>0.02542487418974204</v>
+        <v>0.02770280281402471</v>
       </c>
       <c r="E18">
-        <v>0.04668907915448184</v>
+        <v>0.0463158604852838</v>
       </c>
       <c r="F18">
-        <v>1.083937332439902</v>
+        <v>0.9761514851332578</v>
       </c>
       <c r="G18">
-        <v>0.9231346294330791</v>
+        <v>0.8027563684377554</v>
       </c>
       <c r="H18">
-        <v>0.07237119611509968</v>
+        <v>0.07221943449994939</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6044347449600878</v>
+        <v>0.5706913701577889</v>
       </c>
       <c r="K18">
-        <v>0.5032564912942732</v>
+        <v>0.428370430374521</v>
       </c>
       <c r="L18">
-        <v>0.09970999386048618</v>
+        <v>0.1873317161740893</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.141034825830701</v>
       </c>
       <c r="N18">
-        <v>0.1509866484569926</v>
+        <v>0.1021297647084083</v>
       </c>
       <c r="O18">
-        <v>0.485395459648899</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8434073100656931</v>
+        <v>0.1667377336972962</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4728876685496033</v>
+      </c>
+      <c r="R18">
+        <v>0.8617183153473462</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.220421607347362</v>
+        <v>3.037425529512632</v>
       </c>
       <c r="C19">
-        <v>0.6380668010526733</v>
+        <v>0.6896010599170097</v>
       </c>
       <c r="D19">
-        <v>0.02730956022536724</v>
+        <v>0.03007092743164819</v>
       </c>
       <c r="E19">
-        <v>0.04331794088918706</v>
+        <v>0.04274473511078458</v>
       </c>
       <c r="F19">
-        <v>1.190020811079464</v>
+        <v>1.069057596556291</v>
       </c>
       <c r="G19">
-        <v>1.017555718184667</v>
+        <v>0.8808029510754807</v>
       </c>
       <c r="H19">
-        <v>0.02696151609981712</v>
+        <v>0.02684328626011734</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6524599530488189</v>
+        <v>0.6152420049292431</v>
       </c>
       <c r="K19">
-        <v>0.5545669309730528</v>
+        <v>0.4696124523503755</v>
       </c>
       <c r="L19">
-        <v>0.08507759247139646</v>
+        <v>0.2030300375774452</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1563585384507498</v>
       </c>
       <c r="N19">
-        <v>0.1954906311094859</v>
+        <v>0.0862113824641213</v>
       </c>
       <c r="O19">
-        <v>0.5299852544744823</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8249633396398721</v>
+        <v>0.2146172703186835</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5160792686579896</v>
+      </c>
+      <c r="R19">
+        <v>0.8356750795922423</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.517716080669743</v>
+        <v>3.291362599161005</v>
       </c>
       <c r="C20">
-        <v>0.6572328078018757</v>
+        <v>0.7157374873197</v>
       </c>
       <c r="D20">
-        <v>0.03150791520132401</v>
+        <v>0.0353809265540761</v>
       </c>
       <c r="E20">
-        <v>0.04359414002845541</v>
+        <v>0.04247736750833675</v>
       </c>
       <c r="F20">
-        <v>1.390204940388529</v>
+        <v>1.235299733924208</v>
       </c>
       <c r="G20">
-        <v>1.20015161768552</v>
+        <v>1.045043887796211</v>
       </c>
       <c r="H20">
-        <v>0.0002248036600467351</v>
+        <v>0.0002135021745104382</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7404874512571098</v>
+        <v>0.6696889008541405</v>
       </c>
       <c r="K20">
-        <v>0.6441564439830287</v>
+        <v>0.5365177332384619</v>
       </c>
       <c r="L20">
-        <v>0.07564369164886564</v>
+        <v>0.2253959264833654</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1853091603339365</v>
       </c>
       <c r="N20">
-        <v>0.2840332600193136</v>
+        <v>0.07439257775452823</v>
       </c>
       <c r="O20">
-        <v>0.627434135807988</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7929002503843297</v>
+        <v>0.3091109210581067</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6090581983149548</v>
+      </c>
+      <c r="R20">
+        <v>0.7955960594376563</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.975409790015078</v>
+        <v>3.664377854104941</v>
       </c>
       <c r="C21">
-        <v>0.7400178249747569</v>
+        <v>0.7856762336833185</v>
       </c>
       <c r="D21">
-        <v>0.03428228907536024</v>
+        <v>0.04045735611677159</v>
       </c>
       <c r="E21">
-        <v>0.04636521835885743</v>
+        <v>0.04481926272243453</v>
       </c>
       <c r="F21">
-        <v>1.504764637012144</v>
+        <v>1.288833110424775</v>
       </c>
       <c r="G21">
-        <v>1.314299738199622</v>
+        <v>1.231356454702478</v>
       </c>
       <c r="H21">
-        <v>0.0001591662062314647</v>
+        <v>9.435703429439002E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7873137386115729</v>
+        <v>0.5598079522489456</v>
       </c>
       <c r="K21">
-        <v>0.6778293677024365</v>
+        <v>0.5396023050641574</v>
       </c>
       <c r="L21">
-        <v>0.07986300205279662</v>
+        <v>0.2181977913716082</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1978852624362304</v>
       </c>
       <c r="N21">
-        <v>0.3213703901801779</v>
+        <v>0.07782048725132107</v>
       </c>
       <c r="O21">
-        <v>0.7106175438516544</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7468200462268388</v>
+        <v>0.34715171396698</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6816917822182589</v>
+      </c>
+      <c r="R21">
+        <v>0.7651497246462711</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.268105895301915</v>
+        <v>3.89849131618007</v>
       </c>
       <c r="C22">
-        <v>0.7947410306143752</v>
+        <v>0.8298773709813361</v>
       </c>
       <c r="D22">
-        <v>0.03593855966711246</v>
+        <v>0.04384885305865893</v>
       </c>
       <c r="E22">
-        <v>0.04809987326174159</v>
+        <v>0.04632474944097431</v>
       </c>
       <c r="F22">
-        <v>1.573067225870048</v>
+        <v>1.31500171057057</v>
       </c>
       <c r="G22">
-        <v>1.383298005581224</v>
+        <v>1.358604815942641</v>
       </c>
       <c r="H22">
-        <v>0.0007143208706958948</v>
+        <v>0.0004671094320309876</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8152034489796165</v>
+        <v>0.4863349626325828</v>
       </c>
       <c r="K22">
-        <v>0.6967764697060872</v>
+        <v>0.5378751563290649</v>
       </c>
       <c r="L22">
-        <v>0.08286698364285883</v>
+        <v>0.2122144883814379</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2050394376815419</v>
       </c>
       <c r="N22">
-        <v>0.3416233866278588</v>
+        <v>0.08041708980909412</v>
       </c>
       <c r="O22">
-        <v>0.7615313335953928</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7181811339952002</v>
+        <v>0.3674325676470431</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7251442316885388</v>
+      </c>
+      <c r="R22">
+        <v>0.7485681593931162</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.111720691435039</v>
+        <v>3.778563399353459</v>
       </c>
       <c r="C23">
-        <v>0.7654971426773329</v>
+        <v>0.8090077539749245</v>
       </c>
       <c r="D23">
-        <v>0.03505176422190459</v>
+        <v>0.04176519571996451</v>
       </c>
       <c r="E23">
-        <v>0.04717142359392068</v>
+        <v>0.04550568121318477</v>
       </c>
       <c r="F23">
-        <v>1.536419994355981</v>
+        <v>1.305415669793518</v>
       </c>
       <c r="G23">
-        <v>1.346272733448501</v>
+        <v>1.279094661365406</v>
       </c>
       <c r="H23">
-        <v>0.0003692490742763788</v>
+        <v>0.0002365790565883596</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8002130179670246</v>
+        <v>0.5392515268881795</v>
       </c>
       <c r="K23">
-        <v>0.6865597196541273</v>
+        <v>0.5407676150201652</v>
       </c>
       <c r="L23">
-        <v>0.08126123719269529</v>
+        <v>0.2160764315568358</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2019968093132007</v>
       </c>
       <c r="N23">
-        <v>0.3308041587668242</v>
+        <v>0.07907098478887065</v>
       </c>
       <c r="O23">
-        <v>0.7343309299873937</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7333766616876396</v>
+        <v>0.3568263693651943</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7027658375855808</v>
+      </c>
+      <c r="R23">
+        <v>0.7564713932359659</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.522872364845739</v>
+        <v>3.29547252274142</v>
       </c>
       <c r="C24">
-        <v>0.6554902537059775</v>
+        <v>0.7145269774073597</v>
       </c>
       <c r="D24">
-        <v>0.03174966115600952</v>
+        <v>0.03567287639934946</v>
       </c>
       <c r="E24">
-        <v>0.04370613927436517</v>
+        <v>0.04256598336329009</v>
       </c>
       <c r="F24">
-        <v>1.401686406658257</v>
+        <v>1.245585962357438</v>
       </c>
       <c r="G24">
-        <v>1.210237279991176</v>
+        <v>1.052850993574864</v>
       </c>
       <c r="H24">
-        <v>9.390161990996404E-05</v>
+        <v>8.351500690673141E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7456609102968059</v>
+        <v>0.6753803158169802</v>
       </c>
       <c r="K24">
-        <v>0.6500716689749879</v>
+        <v>0.5414021057418097</v>
       </c>
       <c r="L24">
-        <v>0.07522466089099566</v>
+        <v>0.2273244911498118</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1870372789106547</v>
       </c>
       <c r="N24">
-        <v>0.290025440253288</v>
+        <v>0.07379168955605664</v>
       </c>
       <c r="O24">
-        <v>0.6318611363646269</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7928494726233168</v>
+        <v>0.3155175408459741</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6133825604147347</v>
+      </c>
+      <c r="R24">
+        <v>0.7943003352498899</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.893546418512187</v>
+        <v>2.72135349408461</v>
       </c>
       <c r="C25">
-        <v>0.5380441176334614</v>
+        <v>0.583695585884243</v>
       </c>
       <c r="D25">
-        <v>0.02827719714985832</v>
+        <v>0.03187155568671685</v>
       </c>
       <c r="E25">
-        <v>0.04003718626798414</v>
+        <v>0.03949287386871747</v>
       </c>
       <c r="F25">
-        <v>1.263981083814471</v>
+        <v>1.137086817894641</v>
       </c>
       <c r="G25">
-        <v>1.071296426900943</v>
+        <v>0.9330744146902816</v>
       </c>
       <c r="H25">
-        <v>0.001759628665631618</v>
+        <v>0.001432472649327332</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.691031600089218</v>
+        <v>0.6437001830437055</v>
       </c>
       <c r="K25">
-        <v>0.6149114428687099</v>
+        <v>0.5224173094410105</v>
       </c>
       <c r="L25">
-        <v>0.0687541401221532</v>
+        <v>0.231962829565159</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1656085416860087</v>
       </c>
       <c r="N25">
-        <v>0.2463499022043436</v>
+        <v>0.0676066084903475</v>
       </c>
       <c r="O25">
-        <v>0.5222582164555263</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8608285755123841</v>
+        <v>0.2688337670760319</v>
       </c>
       <c r="Q25">
+        <v>0.5085308077098105</v>
+      </c>
+      <c r="R25">
+        <v>0.8470950814110836</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
